--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\eps-1.4.3-hk-wipB\eps-1.4.3-hk-wipB\InputData\land\BLACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-hongkong\InputData\land\BLAPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_1F1C0591A58E543D1E195D7502C0AE60F7768139" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{EF73F161-7395-433B-AA89-63429A6B247E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="LU GHG" sheetId="4" r:id="rId2"/>
     <sheet name="Data" sheetId="2" r:id="rId3"/>
-    <sheet name="BLACE" sheetId="3" r:id="rId4"/>
+    <sheet name="BLAPE" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -195,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,6 +342,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1308,23 +1308,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1360,23 +1343,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1552,25 +1518,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="51.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1578,34 +1544,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{DC5F5445-4E98-487C-B160-868E86D9E28A}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -1613,35 +1579,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9159405A-7E3A-4E02-B0E1-BECA875BBA97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="7" max="7" width="9.1328125" style="15"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
         <v>9</v>
       </c>
@@ -1649,7 +1615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +1626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F6" t="s">
         <v>14</v>
       </c>
@@ -1668,7 +1634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -1682,7 +1648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1699,7 +1665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>25</v>
       </c>
@@ -1722,7 +1688,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>32</v>
       </c>
@@ -1745,7 +1711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1990</v>
       </c>
@@ -1771,7 +1737,7 @@
         <v>35200</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1991</v>
       </c>
@@ -1797,7 +1763,7 @@
         <v>38700</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1992</v>
       </c>
@@ -1823,7 +1789,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1993</v>
       </c>
@@ -1849,7 +1815,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1994</v>
       </c>
@@ -1875,7 +1841,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1995</v>
       </c>
@@ -1901,7 +1867,7 @@
         <v>36600</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1996</v>
       </c>
@@ -1927,7 +1893,7 @@
         <v>35200</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1997</v>
       </c>
@@ -1953,7 +1919,7 @@
         <v>33700</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1998</v>
       </c>
@@ -1979,7 +1945,7 @@
         <v>35100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1999</v>
       </c>
@@ -2005,7 +1971,7 @@
         <v>32900</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -2031,7 +1997,7 @@
         <v>33300</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2001</v>
       </c>
@@ -2057,7 +2023,7 @@
         <v>33400</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2002</v>
       </c>
@@ -2083,7 +2049,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2003</v>
       </c>
@@ -2109,7 +2075,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2004</v>
       </c>
@@ -2135,7 +2101,7 @@
         <v>38700</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2005</v>
       </c>
@@ -2161,7 +2127,7 @@
         <v>41200</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2006</v>
       </c>
@@ -2187,7 +2153,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2007</v>
       </c>
@@ -2213,7 +2179,7 @@
         <v>42900</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2008</v>
       </c>
@@ -2239,7 +2205,7 @@
         <v>41600</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2009</v>
       </c>
@@ -2265,7 +2231,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2010</v>
       </c>
@@ -2291,7 +2257,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2011</v>
       </c>
@@ -2317,7 +2283,7 @@
         <v>42600</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2012</v>
       </c>
@@ -2343,7 +2309,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2013</v>
       </c>
@@ -2369,7 +2335,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2014</v>
       </c>
@@ -2405,7 +2371,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -2435,7 +2401,7 @@
         <v>30444444444.444443</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="14" t="s">
         <v>39</v>
       </c>
@@ -2461,7 +2427,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B38" s="12">
         <v>-0.66500000000000004</v>
       </c>
@@ -2491,20 +2457,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2632,7 +2598,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2794,7 +2760,7 @@
         <v>1.9392857142857101E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2963,7 +2929,7 @@
         <v>19392857142.857101</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -2972,7 +2938,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -3001,13 +2967,13 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="17"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
       <c r="C7">
         <f>C5*0.907185</f>
         <v>29937.105</v>
@@ -3041,47 +3007,47 @@
         <v>27215.55</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{DBAF41C4-068A-4E19-9A34-228F1758ECBF}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="16.73046875" customWidth="1"/>
+    <col min="4" max="19" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3191,7 +3157,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3346,24 +3312,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3597,10 +3545,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF216F73-5CDF-4A78-8B44-971F5F60F9A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C052F28-A83C-4D30-9FE5-AD91BABE231B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3624,21 +3602,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C052F28-A83C-4D30-9FE5-AD91BABE231B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF216F73-5CDF-4A78-8B44-971F5F60F9A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>